--- a/data/质量分析.xlsx
+++ b/data/质量分析.xlsx
@@ -13,7 +13,7 @@
     <sheet name="校区-教师" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'校区-教师'!$A$1:$L$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'校区-教师'!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -295,7 +295,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,6 +385,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -454,7 +461,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -514,6 +521,24 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1508,464 +1533,585 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="14.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="14.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="22" customWidth="1"/>
+    <col min="3" max="4" width="9" style="22"/>
+    <col min="5" max="5" width="10.125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="22" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1" customWidth="1"/>
+    <col min="8" max="10" width="14.25" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="10" t="s">
+      <c r="B1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="C1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="E1" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+    </row>
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="25">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="C2" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="23">
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="E2" s="23">
+        <v>0</v>
+      </c>
+      <c r="F2" s="24">
+        <v>94.228571428571428</v>
+      </c>
+      <c r="G2" s="18"/>
+      <c r="H2" s="12">
+        <v>1</v>
+      </c>
+      <c r="I2" s="12">
+        <v>1</v>
+      </c>
+      <c r="J2" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B3" s="25">
+        <v>0.82857142857142863</v>
+      </c>
+      <c r="C3" s="23">
+        <v>0.11428571428571428</v>
+      </c>
+      <c r="D3" s="23">
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="E3" s="23">
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="F3" s="24">
+        <v>93</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="12">
         <v>1</v>
       </c>
-      <c r="C2" s="12">
+      <c r="I3" s="12">
         <v>2</v>
       </c>
-      <c r="D2" s="12">
+      <c r="J3" s="12">
         <v>2</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="18">
-        <v>0.82857142857142863</v>
-      </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-    </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="25">
+        <v>0.89830508474576276</v>
+      </c>
+      <c r="C4" s="23">
+        <v>3.3898305084745763E-2</v>
+      </c>
+      <c r="D4" s="23">
+        <v>5.0847457627118647E-2</v>
+      </c>
+      <c r="E4" s="23">
+        <v>1.6949152542372881E-2</v>
+      </c>
+      <c r="F4" s="24">
+        <v>93.033898305084747</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="12">
+        <v>2</v>
+      </c>
+      <c r="I4" s="12">
+        <v>3</v>
+      </c>
+      <c r="J4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B5" s="25">
+        <v>0.67796610169491522</v>
+      </c>
+      <c r="C5" s="23">
+        <v>0.22033898305084745</v>
+      </c>
+      <c r="D5" s="23">
+        <v>6.7796610169491525E-2</v>
+      </c>
+      <c r="E5" s="23">
+        <v>3.3898305084745763E-2</v>
+      </c>
+      <c r="F5" s="24">
+        <v>88.432203389830505</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="12">
         <v>2</v>
       </c>
-      <c r="C3" s="12">
+      <c r="I5" s="12">
         <v>4</v>
       </c>
-      <c r="D3" s="12">
+      <c r="J5" s="12">
         <v>2</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="18">
-        <v>0.67796610169491522</v>
-      </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-    </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="25">
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="C6" s="23">
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="D6" s="23">
+        <v>0.18421052631578946</v>
+      </c>
+      <c r="E6" s="23">
+        <v>2.6315789473684209E-2</v>
+      </c>
+      <c r="F6" s="24">
+        <v>84.684210526315795</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="12">
+        <v>3</v>
+      </c>
+      <c r="I6" s="12">
+        <v>5</v>
+      </c>
+      <c r="J6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B7" s="25">
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="C7" s="23">
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="D7" s="23">
+        <v>0.36842105263157893</v>
+      </c>
+      <c r="E7" s="23">
+        <v>0</v>
+      </c>
+      <c r="F7" s="24">
+        <v>82.28947368421052</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="12">
         <v>3</v>
       </c>
-      <c r="C4" s="12">
+      <c r="I7" s="12">
         <v>6</v>
       </c>
-      <c r="D4" s="12">
+      <c r="J7" s="12">
         <v>2</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="18">
-        <v>0.31578947368421051</v>
-      </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-    </row>
-    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="25">
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="C8" s="23">
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="D8" s="23">
+        <v>0.20689655172413793</v>
+      </c>
+      <c r="E8" s="23">
+        <v>0</v>
+      </c>
+      <c r="F8" s="24">
+        <v>87.258620689655174</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8" s="12">
+        <v>4</v>
+      </c>
+      <c r="I8" s="12">
+        <v>7</v>
+      </c>
+      <c r="J8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B9" s="25">
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0.44827586206896552</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="E9" s="25">
+        <v>0</v>
+      </c>
+      <c r="F9" s="26">
+        <v>84.620689655172413</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="12">
         <v>4</v>
       </c>
-      <c r="C5" s="12">
+      <c r="I9" s="12">
         <v>8</v>
       </c>
-      <c r="D5" s="12">
+      <c r="J9" s="12">
         <v>2</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="18">
-        <v>0.31034482758620691</v>
-      </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-    </row>
-    <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="25">
+        <v>0.21739130434782608</v>
+      </c>
+      <c r="C10" s="25">
+        <v>0.52173913043478259</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0.21739130434782608</v>
+      </c>
+      <c r="E10" s="25">
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="F10" s="26">
+        <v>83.304347826086953</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="12">
+        <v>5</v>
+      </c>
+      <c r="I10" s="12">
+        <v>9</v>
+      </c>
+      <c r="J10" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B11" s="25">
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="C11" s="25">
+        <v>0.43478260869565216</v>
+      </c>
+      <c r="D11" s="25">
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="E11" s="25">
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="F11" s="26">
+        <v>81.434782608695656</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="12">
         <v>5</v>
       </c>
-      <c r="C6" s="12">
+      <c r="I11" s="12">
         <v>10</v>
       </c>
-      <c r="D6" s="12">
+      <c r="J11" s="12">
         <v>2</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="18">
-        <v>0.2608695652173913</v>
-      </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-    </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+    </row>
+    <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="25">
+        <v>0.59259259259259256</v>
+      </c>
+      <c r="C12" s="25">
+        <v>0.25925925925925924</v>
+      </c>
+      <c r="D12" s="25">
+        <v>0.14814814814814814</v>
+      </c>
+      <c r="E12" s="25">
+        <v>0</v>
+      </c>
+      <c r="F12" s="26">
+        <v>89.296296296296291</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="12">
+        <v>6</v>
+      </c>
+      <c r="I12" s="12">
+        <v>11</v>
+      </c>
+      <c r="J12" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B13" s="25">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C13" s="25">
+        <v>0.51851851851851849</v>
+      </c>
+      <c r="D13" s="25">
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="E13" s="25">
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="F13" s="26">
+        <v>82.351851851851848</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="12">
         <v>6</v>
       </c>
-      <c r="C7" s="12">
+      <c r="I13" s="12">
         <v>12</v>
       </c>
-      <c r="D7" s="12">
+      <c r="J13" s="12">
         <v>2</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="18">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-    </row>
-    <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+    </row>
+    <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="25">
+        <v>0.24324324324324326</v>
+      </c>
+      <c r="C14" s="25">
+        <v>0.1891891891891892</v>
+      </c>
+      <c r="D14" s="25">
+        <v>0.48648648648648651</v>
+      </c>
+      <c r="E14" s="25">
+        <v>8.1081081081081086E-2</v>
+      </c>
+      <c r="F14" s="26">
+        <v>92.405405405405403</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="12">
+        <v>7</v>
+      </c>
+      <c r="I14" s="12">
+        <v>13</v>
+      </c>
+      <c r="J14" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B15" s="25">
+        <v>2.7027027027027029E-2</v>
+      </c>
+      <c r="C15" s="25">
+        <v>5.4054054054054057E-2</v>
+      </c>
+      <c r="D15" s="25">
+        <v>0.32432432432432434</v>
+      </c>
+      <c r="E15" s="25">
+        <v>0.59459459459459463</v>
+      </c>
+      <c r="F15" s="26">
+        <v>64.918918918918919</v>
+      </c>
+      <c r="G15" s="19"/>
+      <c r="H15" s="12">
         <v>7</v>
       </c>
-      <c r="C8" s="12">
+      <c r="I15" s="12">
         <v>14</v>
       </c>
-      <c r="D8" s="12">
+      <c r="J15" s="12">
         <v>2</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="18">
-        <v>2.7027027027027029E-2</v>
-      </c>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-    </row>
-    <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+    </row>
+    <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="27">
+        <v>0</v>
+      </c>
+      <c r="C16" s="25">
+        <v>0</v>
+      </c>
+      <c r="D16" s="25">
+        <v>0.57894736842105265</v>
+      </c>
+      <c r="E16" s="25">
+        <v>0.42105263157894735</v>
+      </c>
+      <c r="F16" s="26">
+        <v>73.89473684210526</v>
+      </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="12">
+        <v>8</v>
+      </c>
+      <c r="I16" s="12">
+        <v>15</v>
+      </c>
+      <c r="J16" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B17" s="25">
+        <v>0</v>
+      </c>
+      <c r="C17" s="25">
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="D17" s="25">
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="E17" s="25">
+        <v>0.57894736842105265</v>
+      </c>
+      <c r="F17" s="26">
+        <v>68.421052631578945</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="12">
         <v>8</v>
       </c>
-      <c r="C9" s="12">
+      <c r="I17" s="12">
         <v>16</v>
       </c>
-      <c r="D9" s="12">
+      <c r="J17" s="12">
         <v>2</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="18">
+    </row>
+    <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="12">
+        <v>9</v>
+      </c>
+      <c r="I18" s="12">
+        <v>17</v>
+      </c>
+      <c r="J18" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="25">
         <v>0</v>
       </c>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-    </row>
-    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="12">
+      <c r="C19" s="25">
+        <v>0</v>
+      </c>
+      <c r="D19" s="25">
+        <v>0</v>
+      </c>
+      <c r="E19" s="25">
+        <v>0</v>
+      </c>
+      <c r="F19" s="26"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="12">
         <v>9</v>
       </c>
-      <c r="C10" s="12">
+      <c r="I19" s="12">
         <v>18</v>
       </c>
-      <c r="D10" s="12">
+      <c r="J19" s="12">
         <v>2</v>
       </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-    </row>
-    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="12">
-        <v>1</v>
-      </c>
-      <c r="C11" s="12">
-        <v>1</v>
-      </c>
-      <c r="D11" s="12">
-        <v>1</v>
-      </c>
-      <c r="E11" s="12"/>
-      <c r="F11" s="18">
-        <v>0.86</v>
-      </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-    </row>
-    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="12">
-        <v>2</v>
-      </c>
-      <c r="C12" s="12">
-        <v>3</v>
-      </c>
-      <c r="D12" s="12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="18">
-        <v>0.9</v>
-      </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-    </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="12">
-        <v>3</v>
-      </c>
-      <c r="C13" s="12">
-        <v>5</v>
-      </c>
-      <c r="D13" s="12">
-        <v>1</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="18">
-        <v>0.47</v>
-      </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-    </row>
-    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="12">
-        <v>4</v>
-      </c>
-      <c r="C14" s="12">
-        <v>7</v>
-      </c>
-      <c r="D14" s="12">
-        <v>1</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="18">
-        <v>0.55172413793103448</v>
-      </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-    </row>
-    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="12">
-        <v>5</v>
-      </c>
-      <c r="C15" s="12">
-        <v>9</v>
-      </c>
-      <c r="D15" s="12">
-        <v>1</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="18">
-        <v>0.21739130434782608</v>
-      </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-    </row>
-    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="12">
-        <v>6</v>
-      </c>
-      <c r="C16" s="12">
-        <v>11</v>
-      </c>
-      <c r="D16" s="12">
-        <v>1</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="18">
-        <v>0.59259259259259256</v>
-      </c>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-    </row>
-    <row r="17" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="12">
-        <v>7</v>
-      </c>
-      <c r="C17" s="12">
-        <v>13</v>
-      </c>
-      <c r="D17" s="12">
-        <v>1</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="18">
-        <v>0.24</v>
-      </c>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-    </row>
-    <row r="18" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="12">
-        <v>8</v>
-      </c>
-      <c r="C18" s="12">
-        <v>15</v>
-      </c>
-      <c r="D18" s="12">
-        <v>1</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="18">
-        <v>0</v>
-      </c>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-    </row>
-    <row r="19" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="12">
-        <v>9</v>
-      </c>
-      <c r="C19" s="12">
-        <v>17</v>
-      </c>
-      <c r="D19" s="12">
-        <v>1</v>
-      </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1">
-    <sortState ref="A2:J19">
-      <sortCondition descending="1" ref="D1"/>
+  <autoFilter ref="A1:J1">
+    <sortState ref="A2:Q19">
+      <sortCondition ref="I1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/data/质量分析.xlsx
+++ b/data/质量分析.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="教学管理" sheetId="1" r:id="rId1"/>
-    <sheet name="班级管理" sheetId="2" r:id="rId2"/>
-    <sheet name="校区-基本" sheetId="3" r:id="rId3"/>
-    <sheet name="校区-教师" sheetId="4" r:id="rId4"/>
+    <sheet name="教学-语文" sheetId="1" r:id="rId1"/>
+    <sheet name="教学-数学" sheetId="5" r:id="rId2"/>
+    <sheet name="班级管理" sheetId="2" r:id="rId3"/>
+    <sheet name="校区-基本" sheetId="3" r:id="rId4"/>
+    <sheet name="校区-教师" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'校区-教师'!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'校区-教师'!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="84">
   <si>
     <t>班 级</t>
   </si>
@@ -288,6 +289,31 @@
   <si>
     <t>B 良好
 89－80</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>语文</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>科目</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>年级</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>班级</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>考试
+人数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -401,7 +427,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -454,6 +480,32 @@
         <color indexed="64"/>
       </diagonal>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -461,7 +513,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -500,9 +552,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -516,12 +565,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -539,6 +582,30 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -855,299 +922,1321 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="5" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="H1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="2" t="s">
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="I2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="20"/>
-    </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="M2" s="29"/>
+    </row>
+    <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4">
         <v>24</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>201501</v>
+      </c>
+      <c r="F3" s="4">
+        <v>23</v>
+      </c>
+      <c r="G3" s="27">
+        <v>94.630434782608702</v>
+      </c>
+      <c r="H3" s="26">
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="I3" s="26">
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="J3" s="26">
+        <v>0</v>
+      </c>
+      <c r="K3" s="26">
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="L3" s="26">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
         <v>24</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="C4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>201502</v>
+      </c>
+      <c r="F4" s="4">
+        <v>24</v>
+      </c>
+      <c r="G4" s="28">
+        <v>94.354166666666671</v>
+      </c>
+      <c r="H4" s="26">
+        <v>0.875</v>
+      </c>
+      <c r="I4" s="26">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J4" s="26">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K4" s="26">
+        <v>0</v>
+      </c>
+      <c r="L4" s="26">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="4">
         <v>24</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="C5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>201503</v>
+      </c>
+      <c r="F5" s="4">
+        <v>23</v>
+      </c>
+      <c r="G5" s="28">
+        <v>93.695652173913047</v>
+      </c>
+      <c r="H5" s="26">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="I5" s="26">
+        <v>0.21739130434782608</v>
+      </c>
+      <c r="J5" s="26">
+        <v>0</v>
+      </c>
+      <c r="K5" s="26">
+        <v>0</v>
+      </c>
+      <c r="L5" s="26">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="4">
         <v>22</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="C6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>201401</v>
+      </c>
+      <c r="F6" s="4">
+        <v>22</v>
+      </c>
+      <c r="G6" s="28">
+        <v>95.159090909090907</v>
+      </c>
+      <c r="H6" s="26">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="I6" s="26">
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="J6" s="26">
+        <v>0</v>
+      </c>
+      <c r="K6" s="26">
+        <v>0</v>
+      </c>
+      <c r="L6" s="26">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="4">
         <v>18</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="C7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4">
+        <v>201402</v>
+      </c>
+      <c r="F7" s="4">
+        <v>18</v>
+      </c>
+      <c r="G7" s="28">
+        <v>92.305555555555557</v>
+      </c>
+      <c r="H7" s="26">
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="I7" s="26">
+        <v>0</v>
+      </c>
+      <c r="J7" s="26">
+        <v>0</v>
+      </c>
+      <c r="K7" s="26">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="L7" s="26">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="4">
         <v>19</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="C8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>201403</v>
+      </c>
+      <c r="F8" s="4">
+        <v>19</v>
+      </c>
+      <c r="G8" s="28">
+        <v>91.263157894736835</v>
+      </c>
+      <c r="H8" s="26">
+        <v>0.84210526315789469</v>
+      </c>
+      <c r="I8" s="26">
+        <v>0</v>
+      </c>
+      <c r="J8" s="26">
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="K8" s="26">
+        <v>0</v>
+      </c>
+      <c r="L8" s="26">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="4">
         <v>21</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="C9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4">
+        <v>201301</v>
+      </c>
+      <c r="F9" s="4">
+        <v>21</v>
+      </c>
+      <c r="G9" s="28">
+        <v>86.428571428571431</v>
+      </c>
+      <c r="H9" s="26">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="I9" s="26">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="J9" s="26">
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="K9" s="26">
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="L9" s="26">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B10" s="4">
         <v>17</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="C10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4">
+        <v>201302</v>
+      </c>
+      <c r="F10" s="4">
+        <v>17</v>
+      </c>
+      <c r="G10" s="28">
+        <v>82.529411764705884</v>
+      </c>
+      <c r="H10" s="26">
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="I10" s="26">
+        <v>0.35294117647058826</v>
+      </c>
+      <c r="J10" s="26">
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="K10" s="26">
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="L10" s="26">
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="4">
         <v>29</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="C11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="4">
+        <v>4</v>
+      </c>
+      <c r="E11" s="4">
+        <v>201201</v>
+      </c>
+      <c r="F11" s="4">
+        <v>29</v>
+      </c>
+      <c r="G11" s="28">
+        <v>87.258620689655174</v>
+      </c>
+      <c r="H11" s="26">
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="I11" s="26">
+        <v>0.2413793103448276</v>
+      </c>
+      <c r="J11" s="26">
+        <v>0.13793103448275862</v>
+      </c>
+      <c r="K11" s="26">
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="L11" s="26">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="4">
         <v>23</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="C12" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="4">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4">
+        <v>201101</v>
+      </c>
+      <c r="F12" s="4">
+        <v>23</v>
+      </c>
+      <c r="G12" s="28">
+        <v>83.304347826086953</v>
+      </c>
+      <c r="H12" s="26">
+        <v>0.21739130434782608</v>
+      </c>
+      <c r="I12" s="26">
+        <v>0.52173913043478259</v>
+      </c>
+      <c r="J12" s="26">
+        <v>0.17391304347826086</v>
+      </c>
+      <c r="K12" s="26">
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="L12" s="26">
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="4">
         <v>27</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="C13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="4">
+        <v>6</v>
+      </c>
+      <c r="E13" s="4">
+        <v>201001</v>
+      </c>
+      <c r="F13" s="4">
+        <v>27</v>
+      </c>
+      <c r="G13" s="28">
+        <v>89.296296296296291</v>
+      </c>
+      <c r="H13" s="26">
+        <v>0.59259259259259256</v>
+      </c>
+      <c r="I13" s="26">
+        <v>0.25925925925925924</v>
+      </c>
+      <c r="J13" s="26">
+        <v>0.14814814814814814</v>
+      </c>
+      <c r="K13" s="26">
+        <v>0</v>
+      </c>
+      <c r="L13" s="26">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="4">
         <v>19</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="C14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="4">
+        <v>7</v>
+      </c>
+      <c r="E14" s="4">
+        <v>200901</v>
+      </c>
+      <c r="F14" s="4">
+        <v>19</v>
+      </c>
+      <c r="G14" s="28">
+        <v>100</v>
+      </c>
+      <c r="H14" s="26">
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="I14" s="26">
+        <v>0.36842105263157893</v>
+      </c>
+      <c r="J14" s="26">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="K14" s="26">
+        <v>0</v>
+      </c>
+      <c r="L14" s="26">
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
         <v>23</v>
       </c>
       <c r="B15" s="4">
         <v>18</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="C15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="4">
+        <v>7</v>
+      </c>
+      <c r="E15" s="4">
+        <v>200902</v>
+      </c>
+      <c r="F15" s="4">
+        <v>18</v>
+      </c>
+      <c r="G15" s="28">
+        <v>84.388888888888886</v>
+      </c>
+      <c r="H15" s="26">
+        <v>0</v>
+      </c>
+      <c r="I15" s="26">
+        <v>0</v>
+      </c>
+      <c r="J15" s="26">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K15" s="26">
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="L15" s="26">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="4">
         <v>20</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="C16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="4">
+        <v>8</v>
+      </c>
+      <c r="E16" s="4">
+        <v>200801</v>
+      </c>
+      <c r="F16" s="4">
+        <v>19</v>
+      </c>
+      <c r="G16" s="28">
+        <v>73.89473684210526</v>
+      </c>
+      <c r="H16" s="26">
+        <v>0</v>
+      </c>
+      <c r="I16" s="26">
+        <v>0</v>
+      </c>
+      <c r="J16" s="26">
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="K16" s="26">
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="L16" s="26">
+        <v>0.42105263157894735</v>
+      </c>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="4">
         <v>13</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="2"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:M2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="5" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="29"/>
+    </row>
+    <row r="3" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="4">
+        <v>24</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>201501</v>
+      </c>
+      <c r="F3" s="4">
+        <v>23</v>
+      </c>
+      <c r="G3" s="27">
+        <v>95.347826086956516</v>
+      </c>
+      <c r="H3" s="26">
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="I3" s="26">
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="J3" s="26">
+        <v>0</v>
+      </c>
+      <c r="K3" s="26">
+        <v>0</v>
+      </c>
+      <c r="L3" s="26">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4">
+        <v>24</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>201502</v>
+      </c>
+      <c r="F4" s="4">
+        <v>24</v>
+      </c>
+      <c r="G4" s="28">
+        <v>93.041666666666671</v>
+      </c>
+      <c r="H4" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="I4" s="26">
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="J4" s="26">
+        <v>0</v>
+      </c>
+      <c r="K4" s="26">
+        <v>0</v>
+      </c>
+      <c r="L4" s="26">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="4">
+        <v>24</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>201503</v>
+      </c>
+      <c r="F5" s="4">
+        <v>23</v>
+      </c>
+      <c r="G5" s="28">
+        <v>90.608695652173907</v>
+      </c>
+      <c r="H5" s="26">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="I5" s="26">
+        <v>8.6956521739130432E-2</v>
+      </c>
+      <c r="J5" s="26">
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="K5" s="26">
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="L5" s="26">
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>201401</v>
+      </c>
+      <c r="F6" s="4">
+        <v>22</v>
+      </c>
+      <c r="G6" s="28">
+        <v>89.13636363636364</v>
+      </c>
+      <c r="H6" s="26">
+        <v>0.77272727272727271</v>
+      </c>
+      <c r="I6" s="26">
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="J6" s="26">
+        <v>0</v>
+      </c>
+      <c r="K6" s="26">
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="L6" s="26">
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4">
+        <v>201402</v>
+      </c>
+      <c r="F7" s="4">
+        <v>18</v>
+      </c>
+      <c r="G7" s="28">
+        <v>89.972222222222229</v>
+      </c>
+      <c r="H7" s="26">
+        <v>0.61111111111111116</v>
+      </c>
+      <c r="I7" s="26">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J7" s="26">
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="K7" s="26">
+        <v>0</v>
+      </c>
+      <c r="L7" s="26">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4">
+        <v>19</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>201403</v>
+      </c>
+      <c r="F8" s="4">
+        <v>19</v>
+      </c>
+      <c r="G8" s="28">
+        <v>86.15789473684211</v>
+      </c>
+      <c r="H8" s="26">
+        <v>0.63157894736842102</v>
+      </c>
+      <c r="I8" s="26">
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="J8" s="26">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="K8" s="26">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="L8" s="26">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="4">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4">
+        <v>201301</v>
+      </c>
+      <c r="F9" s="4">
+        <v>21</v>
+      </c>
+      <c r="G9" s="28">
+        <v>81.047619047619051</v>
+      </c>
+      <c r="H9" s="26">
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="I9" s="26">
+        <v>0.38095238095238093</v>
+      </c>
+      <c r="J9" s="26">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K9" s="26">
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="L9" s="26">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4">
+        <v>201302</v>
+      </c>
+      <c r="F10" s="4">
+        <v>17</v>
+      </c>
+      <c r="G10" s="28">
+        <v>83.82352941176471</v>
+      </c>
+      <c r="H10" s="26">
+        <v>0.47058823529411764</v>
+      </c>
+      <c r="I10" s="26">
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="J10" s="26">
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="K10" s="26">
+        <v>0.23529411764705882</v>
+      </c>
+      <c r="L10" s="26">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="4">
+        <v>29</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="4">
+        <v>4</v>
+      </c>
+      <c r="E11" s="4">
+        <v>201201</v>
+      </c>
+      <c r="F11" s="4">
+        <v>29</v>
+      </c>
+      <c r="G11" s="28">
+        <v>84.620689655172413</v>
+      </c>
+      <c r="H11" s="26">
+        <v>0.31034482758620691</v>
+      </c>
+      <c r="I11" s="26">
+        <v>0.44827586206896552</v>
+      </c>
+      <c r="J11" s="26">
+        <v>0.13793103448275862</v>
+      </c>
+      <c r="K11" s="26">
+        <v>0.10344827586206896</v>
+      </c>
+      <c r="L11" s="26">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4">
+        <v>23</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="4">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4">
+        <v>201101</v>
+      </c>
+      <c r="F12" s="4">
+        <v>23</v>
+      </c>
+      <c r="G12" s="28">
+        <v>81.434782608695656</v>
+      </c>
+      <c r="H12" s="26">
+        <v>0.2608695652173913</v>
+      </c>
+      <c r="I12" s="26">
+        <v>0.43478260869565216</v>
+      </c>
+      <c r="J12" s="26">
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="K12" s="26">
+        <v>0.13043478260869565</v>
+      </c>
+      <c r="L12" s="26">
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="4">
+        <v>27</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="4">
+        <v>6</v>
+      </c>
+      <c r="E13" s="4">
+        <v>201001</v>
+      </c>
+      <c r="F13" s="4">
+        <v>27</v>
+      </c>
+      <c r="G13" s="28">
+        <v>82.351851851851848</v>
+      </c>
+      <c r="H13" s="26">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I13" s="26">
+        <v>0.51851851851851849</v>
+      </c>
+      <c r="J13" s="26">
+        <v>0</v>
+      </c>
+      <c r="K13" s="26">
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="L13" s="26">
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="4">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="4">
+        <v>7</v>
+      </c>
+      <c r="E14" s="4">
+        <v>200901</v>
+      </c>
+      <c r="F14" s="4">
+        <v>19</v>
+      </c>
+      <c r="G14" s="28">
+        <v>73.84210526315789</v>
+      </c>
+      <c r="H14" s="26">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="I14" s="26">
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="J14" s="26">
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="K14" s="26">
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="L14" s="26">
+        <v>0.47368421052631576</v>
+      </c>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="4">
+        <v>18</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="4">
+        <v>7</v>
+      </c>
+      <c r="E15" s="4">
+        <v>200902</v>
+      </c>
+      <c r="F15" s="4">
+        <v>18</v>
+      </c>
+      <c r="G15" s="28">
+        <v>55.5</v>
+      </c>
+      <c r="H15" s="26">
+        <v>0</v>
+      </c>
+      <c r="I15" s="26">
+        <v>0</v>
+      </c>
+      <c r="J15" s="26">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="K15" s="26">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="L15" s="26">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="4">
+        <v>20</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="4">
+        <v>8</v>
+      </c>
+      <c r="E16" s="4">
+        <v>200801</v>
+      </c>
+      <c r="F16" s="4">
+        <v>19</v>
+      </c>
+      <c r="G16" s="28">
+        <v>68.421052631578945</v>
+      </c>
+      <c r="H16" s="26">
+        <v>0</v>
+      </c>
+      <c r="I16" s="26">
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="J16" s="26">
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="K16" s="26">
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="L16" s="26">
+        <v>0.57894736842105265</v>
+      </c>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="4">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
@@ -1157,7 +2246,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="16"/>
+    <col min="1" max="1" width="9" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.3">
@@ -1451,7 +2540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -1514,11 +2603,11 @@
     </row>
     <row r="4" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1531,24 +2620,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="22" customWidth="1"/>
-    <col min="3" max="4" width="9" style="22"/>
-    <col min="5" max="5" width="10.125" style="22" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="22" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="19" customWidth="1"/>
+    <col min="3" max="4" width="9" style="19"/>
+    <col min="5" max="5" width="10.125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="19" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" customWidth="1"/>
     <col min="8" max="10" width="14.25" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
@@ -1576,30 +2665,30 @@
       <c r="G1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="22">
         <v>0.8571428571428571</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="20">
         <v>0.1</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="20">
         <v>4.2857142857142858E-2</v>
       </c>
-      <c r="E2" s="23">
-        <v>0</v>
-      </c>
-      <c r="F2" s="24">
+      <c r="E2" s="20">
+        <v>0</v>
+      </c>
+      <c r="F2" s="21">
         <v>94.228571428571428</v>
       </c>
-      <c r="G2" s="18"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="12">
         <v>1</v>
       </c>
@@ -1614,22 +2703,22 @@
       <c r="A3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="22">
         <v>0.82857142857142863</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="20">
         <v>0.11428571428571428</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="20">
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="20">
         <v>2.8571428571428571E-2</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="21">
         <v>93</v>
       </c>
-      <c r="G3" s="18"/>
+      <c r="G3" s="17"/>
       <c r="H3" s="12">
         <v>1</v>
       </c>
@@ -1644,22 +2733,22 @@
       <c r="A4" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="22">
         <v>0.89830508474576276</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="20">
         <v>3.3898305084745763E-2</v>
       </c>
-      <c r="D4" s="23">
+      <c r="D4" s="20">
         <v>5.0847457627118647E-2</v>
       </c>
-      <c r="E4" s="23">
+      <c r="E4" s="20">
         <v>1.6949152542372881E-2</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="21">
         <v>93.033898305084747</v>
       </c>
-      <c r="G4" s="18"/>
+      <c r="G4" s="17"/>
       <c r="H4" s="12">
         <v>2</v>
       </c>
@@ -1674,22 +2763,22 @@
       <c r="A5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="22">
         <v>0.67796610169491522</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="20">
         <v>0.22033898305084745</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="20">
         <v>6.7796610169491525E-2</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="20">
         <v>3.3898305084745763E-2</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="21">
         <v>88.432203389830505</v>
       </c>
-      <c r="G5" s="18"/>
+      <c r="G5" s="17"/>
       <c r="H5" s="12">
         <v>2</v>
       </c>
@@ -1704,22 +2793,22 @@
       <c r="A6" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="22">
         <v>0.47368421052631576</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="20">
         <v>0.31578947368421051</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="20">
         <v>0.18421052631578946</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="20">
         <v>2.6315789473684209E-2</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="21">
         <v>84.684210526315795</v>
       </c>
-      <c r="G6" s="18"/>
+      <c r="G6" s="17"/>
       <c r="H6" s="12">
         <v>3</v>
       </c>
@@ -1734,22 +2823,22 @@
       <c r="A7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="22">
         <v>0.31578947368421051</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="20">
         <v>0.31578947368421051</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="20">
         <v>0.36842105263157893</v>
       </c>
-      <c r="E7" s="23">
-        <v>0</v>
-      </c>
-      <c r="F7" s="24">
+      <c r="E7" s="20">
+        <v>0</v>
+      </c>
+      <c r="F7" s="21">
         <v>82.28947368421052</v>
       </c>
-      <c r="G7" s="18"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="12">
         <v>3</v>
       </c>
@@ -1764,22 +2853,22 @@
       <c r="A8" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="22">
         <v>0.55172413793103448</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="20">
         <v>0.2413793103448276</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="20">
         <v>0.20689655172413793</v>
       </c>
-      <c r="E8" s="23">
-        <v>0</v>
-      </c>
-      <c r="F8" s="24">
+      <c r="E8" s="20">
+        <v>0</v>
+      </c>
+      <c r="F8" s="21">
         <v>87.258620689655174</v>
       </c>
-      <c r="G8" s="18"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="12">
         <v>4</v>
       </c>
@@ -1794,22 +2883,22 @@
       <c r="A9" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="22">
         <v>0.31034482758620691</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="22">
         <v>0.44827586206896552</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="22">
         <v>0.2413793103448276</v>
       </c>
-      <c r="E9" s="25">
-        <v>0</v>
-      </c>
-      <c r="F9" s="26">
+      <c r="E9" s="22">
+        <v>0</v>
+      </c>
+      <c r="F9" s="23">
         <v>84.620689655172413</v>
       </c>
-      <c r="G9" s="19"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="12">
         <v>4</v>
       </c>
@@ -1824,22 +2913,22 @@
       <c r="A10" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="22">
         <v>0.21739130434782608</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="22">
         <v>0.52173913043478259</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="22">
         <v>0.21739130434782608</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="22">
         <v>4.3478260869565216E-2</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="23">
         <v>83.304347826086953</v>
       </c>
-      <c r="G10" s="19"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="12">
         <v>5</v>
       </c>
@@ -1854,22 +2943,22 @@
       <c r="A11" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="22">
         <v>0.2608695652173913</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="22">
         <v>0.43478260869565216</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="22">
         <v>0.2608695652173913</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="22">
         <v>4.3478260869565216E-2</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="23">
         <v>81.434782608695656</v>
       </c>
-      <c r="G11" s="19"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="12">
         <v>5</v>
       </c>
@@ -1884,22 +2973,22 @@
       <c r="A12" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="22">
         <v>0.59259259259259256</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="22">
         <v>0.25925925925925924</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="22">
         <v>0.14814814814814814</v>
       </c>
-      <c r="E12" s="25">
-        <v>0</v>
-      </c>
-      <c r="F12" s="26">
+      <c r="E12" s="22">
+        <v>0</v>
+      </c>
+      <c r="F12" s="23">
         <v>89.296296296296291</v>
       </c>
-      <c r="G12" s="19"/>
+      <c r="G12" s="18"/>
       <c r="H12" s="12">
         <v>6</v>
       </c>
@@ -1914,22 +3003,22 @@
       <c r="A13" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="22">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="22">
         <v>0.51851851851851849</v>
       </c>
-      <c r="D13" s="25">
+      <c r="D13" s="22">
         <v>7.407407407407407E-2</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="22">
         <v>7.407407407407407E-2</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="23">
         <v>82.351851851851848</v>
       </c>
-      <c r="G13" s="19"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="12">
         <v>6</v>
       </c>
@@ -1944,22 +3033,22 @@
       <c r="A14" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="22">
         <v>0.24324324324324326</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="22">
         <v>0.1891891891891892</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="22">
         <v>0.48648648648648651</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="22">
         <v>8.1081081081081086E-2</v>
       </c>
-      <c r="F14" s="26">
+      <c r="F14" s="23">
         <v>92.405405405405403</v>
       </c>
-      <c r="G14" s="19"/>
+      <c r="G14" s="18"/>
       <c r="H14" s="12">
         <v>7</v>
       </c>
@@ -1974,22 +3063,22 @@
       <c r="A15" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="22">
         <v>2.7027027027027029E-2</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="22">
         <v>5.4054054054054057E-2</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="22">
         <v>0.32432432432432434</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="22">
         <v>0.59459459459459463</v>
       </c>
-      <c r="F15" s="26">
+      <c r="F15" s="23">
         <v>64.918918918918919</v>
       </c>
-      <c r="G15" s="19"/>
+      <c r="G15" s="18"/>
       <c r="H15" s="12">
         <v>7</v>
       </c>
@@ -2004,22 +3093,22 @@
       <c r="A16" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="27">
-        <v>0</v>
-      </c>
-      <c r="C16" s="25">
-        <v>0</v>
-      </c>
-      <c r="D16" s="25">
+      <c r="B16" s="24">
+        <v>0</v>
+      </c>
+      <c r="C16" s="22">
+        <v>0</v>
+      </c>
+      <c r="D16" s="22">
         <v>0.57894736842105265</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="22">
         <v>0.42105263157894735</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="23">
         <v>73.89473684210526</v>
       </c>
-      <c r="G16" s="19"/>
+      <c r="G16" s="18"/>
       <c r="H16" s="12">
         <v>8</v>
       </c>
@@ -2034,22 +3123,22 @@
       <c r="A17" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="25">
-        <v>0</v>
-      </c>
-      <c r="C17" s="25">
+      <c r="B17" s="22">
+        <v>0</v>
+      </c>
+      <c r="C17" s="22">
         <v>0.15789473684210525</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="22">
         <v>0.26315789473684209</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="22">
         <v>0.57894736842105265</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F17" s="23">
         <v>68.421052631578945</v>
       </c>
-      <c r="G17" s="19"/>
+      <c r="G17" s="18"/>
       <c r="H17" s="12">
         <v>8</v>
       </c>
@@ -2064,12 +3153,12 @@
       <c r="A18" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="18"/>
       <c r="H18" s="12">
         <v>9</v>
       </c>
@@ -2084,20 +3173,20 @@
       <c r="A19" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="25">
-        <v>0</v>
-      </c>
-      <c r="C19" s="25">
-        <v>0</v>
-      </c>
-      <c r="D19" s="25">
-        <v>0</v>
-      </c>
-      <c r="E19" s="25">
-        <v>0</v>
-      </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="19"/>
+      <c r="B19" s="22">
+        <v>0</v>
+      </c>
+      <c r="C19" s="22">
+        <v>0</v>
+      </c>
+      <c r="D19" s="22">
+        <v>0</v>
+      </c>
+      <c r="E19" s="22">
+        <v>0</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="18"/>
       <c r="H19" s="12">
         <v>9</v>
       </c>
